--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -60,18 +60,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Excel Logo"/>
+        <xdr:cNvPr id="2" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="false"/>
         </xdr:cNvPicPr>
